--- a/biology/Médecine/Antibiotique_sulfamidé/Antibiotique_sulfamidé.xlsx
+++ b/biology/Médecine/Antibiotique_sulfamidé/Antibiotique_sulfamidé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Antibiotique_sulfamid%C3%A9</t>
+          <t>Antibiotique_sulfamidé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'antibiotique sulfamidé est, comme la plupart des sulfamidés, un agent antimicrobien de structure moléculaire proche de l'acide para-aminobenzoïque normalement utilisé par la bactérie pour produire la vitamine B9. La cellule va les reconnaître pour ce qu'ils ne sont pas et les intégrer dans son métabolisme, et, parce que ce sont des molécules analogues, les voies métaboliques seront bloquées. Ceci provoque une inhibition de la synthèse des bases nucléiques et la cellule meurt par carence en bases nucléiques. 
 Ces produits constituant une famille d'antibiotiques ont eu dans le passé des applications pharmaceutiques de premier ordre, notamment en chimiothérapie antimicrobienne. Ils présentent cependant un risque d'allergie. Ils ont une bonne diffusion au niveau du système nerveux central. Les sulfamidés sont fortement liés aux protéines plasmatiques, ce qui peut augmenter la forme libre d'autres médicaments, par un phénomène de compétition.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Antibiotique_sulfamid%C3%A9</t>
+          <t>Antibiotique_sulfamidé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Daniel Bovet, lauréat du prix Nobel de physiologie ou médecine en 1957, raconte, dans un ouvrage autobiographique[1], la découverte de l'action antibactérienne des sulfamides par Jacques et Thérèse Tréfouël, Federico Nitti et lui-même à l'Institut Pasteur, dans le laboratoire de chimie thérapeutique dirigé par Ernest Fourneau.
-Il rappelle que si Domagk a été couronné en 1939 par le prix Nobel pour sa découverte de l'action du Prontosil (sulfamidochrysoïdine) sur les maladies à streptocoques, c'est dans le laboratoire de Fourneau que ses collaborateurs et lui-même ont isolé pour la première fois, en 1935, l'agent incolore du Prontosil (le 1162 F ou p-aminophényl-sulfamide), renversant l'axe des recherches, qui ne s'étaient appliquées jusqu'alors qu'aux propriétés colorantes du composé, et ouvrant ainsi effectivement la voie à la sulfamidothérapie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel Bovet, lauréat du prix Nobel de physiologie ou médecine en 1957, raconte, dans un ouvrage autobiographique, la découverte de l'action antibactérienne des sulfamides par Jacques et Thérèse Tréfouël, Federico Nitti et lui-même à l'Institut Pasteur, dans le laboratoire de chimie thérapeutique dirigé par Ernest Fourneau.
+Il rappelle que si Domagk a été couronné en 1939 par le prix Nobel pour sa découverte de l'action du Prontosil (sulfamidochrysoïdine) sur les maladies à streptocoques, c'est dans le laboratoire de Fourneau que ses collaborateurs et lui-même ont isolé pour la première fois, en 1935, l'agent incolore du Prontosil (le 1162 F ou p-aminophényl-sulfamide), renversant l'axe des recherches, qui ne s'étaient appliquées jusqu'alors qu'aux propriétés colorantes du composé, et ouvrant ainsi effectivement la voie à la sulfamidothérapie.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Antibiotique_sulfamid%C3%A9</t>
+          <t>Antibiotique_sulfamidé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Pharmacocinétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les associations incluant les sulfamidés sont essentiellement Sulfaméthoxazole + Triméthoprime, Sulfafurazole + Érythromycine (qui n'est plus indiqué dans le traitement de l'OMA), la Sulfadiazine + Pyriméthamine (traitement de la toxoplasmose). 
 Dans l'ensemble, ces associations ont une bonne distribution tissulaire : le LCR, le péritoine, la bile, les sécrétions bronchiques, la prostate, le liquide synovial. 
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Antibiotique_sulfamid%C3%A9</t>
+          <t>Antibiotique_sulfamidé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,11 +595,13 @@
           <t>Effets indésirables</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils peuvent être responsables de vertiges, d'acouphènes, et plus gravement de pancytopénie, réversible par administration d'acide folique, plus rarement d'anémie hémolytique ou d'hypoprothrombinémies. 
 Au niveau cutané, les sulfamidés peuvent également induire un syndrome de Stevens-Johnson (érythème polymorphe avec ulcération des muqueuses oculaire, buccale et génitale) ou, préférentiellement chez les enfants, un syndrome de Lyell (nécrose épidermique bulleuse et extensive). À noter, une hypersensibilité plus importante chez le patient VIH. 
-On note aussi de rares cas d'hypertensions intra-crâniennes (sulfaméthoxazole[3]), des néphropathies tubulo-interstitielles et des lithiases urinaires[4]. 
+On note aussi de rares cas d'hypertensions intra-crâniennes (sulfaméthoxazole), des néphropathies tubulo-interstitielles et des lithiases urinaires. 
 Il existe une allergie croisée avec les autres sulfamidés (anti-diabétiques, anti-inflammatoires).
 </t>
         </is>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Antibiotique_sulfamid%C3%A9</t>
+          <t>Antibiotique_sulfamidé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,9 +631,11 @@
           <t>Environnement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les sulfamidés sont couramment utilisés en médecine humaine et vétérinaire. Comme ils sont lentement métabolisés par le corps, ils sont relâchés dans l'environnement et se retrouvent dilués dans les eaux usées. Les stations d'épuration sont un lieu propice au développement et à la propagation de bactéries résistantes[5]. Par conséquent, des mesures sont prises pour diminuer la quantité d'antibiotique, ainsi que plus généralement de micropolluants dans les boues d'épuration. Une étude parue en 2015[6] s'intéresse à la biodégradation de ces molécules par des bactéries, qui serait une alternative aux techniques qui existent déjà[7],[8]. Les chercheurs ont étudié Microbacterium sp. strain BR1 qui est capable de dégrader les sulfamidés et même d'assimiler certains produits de dégradation. Cette bactérie pourrait donc être utilisée pour le traitement des eaux usées.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sulfamidés sont couramment utilisés en médecine humaine et vétérinaire. Comme ils sont lentement métabolisés par le corps, ils sont relâchés dans l'environnement et se retrouvent dilués dans les eaux usées. Les stations d'épuration sont un lieu propice au développement et à la propagation de bactéries résistantes. Par conséquent, des mesures sont prises pour diminuer la quantité d'antibiotique, ainsi que plus généralement de micropolluants dans les boues d'épuration. Une étude parue en 2015 s'intéresse à la biodégradation de ces molécules par des bactéries, qui serait une alternative aux techniques qui existent déjà,. Les chercheurs ont étudié Microbacterium sp. strain BR1 qui est capable de dégrader les sulfamidés et même d'assimiler certains produits de dégradation. Cette bactérie pourrait donc être utilisée pour le traitement des eaux usées.
 Dans les bactéries, ces composés sont des inhibiteurs compétitifs de l'acide para-aminobenzoïque (PABA), un substrat de l'enzyme dihydroptéroate synthétase. Le fonctionnement de cet enzyme est nécessaire à la synthèse d'acide folique dans ces organismes.
 Le nom commercial du premier sulfonamidé était le Prontosil. Les premières expériences avec le Prontosil ont débuté en 1932 avec le chimiste allemand Gerhard Domagk. Ses résultats ont été publiés en 1935 après que son employer, IG Farben, ait obtenu un brevet pour le composé. Le Prontosil était un colorant azoïque rouge et possédait un effet protecteur contre les streptocoques dans les souris. Cet effet était uniquement observé in vivo et non in vitro. À l'aube de la Seconde Guerre mondiale, les Alliés se sont intéressé au brevet allemand afin de mettre au point leur propre substance.
 Il a été rapidement découvert (1936) que le principe actif du Prontosil était un composé beaucoup plus petit et plus efficace, il s'agit du sulfanilamide.
@@ -633,7 +653,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Antibiotique_sulfamid%C3%A9</t>
+          <t>Antibiotique_sulfamidé</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -651,22 +671,128 @@
           <t>Tableau d'efficacité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Voici un tableau d'efficacité potentielle des bêta-lactamines.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Voici un tableau d'efficacité potentielle des bêta-lactamines.
 Légende :
 spectre utile ;
 non couvert ;
 intermédiaire / résistance fréquente ;
 CG+ : Cocci gram + ;
 BGN : bacilles gram négatif ;
-BG+ : Bacilles gram +.
-Bactéries aérobies
-L'information du spectre d'efficacité de l'antibiotique est à titre indicatif (en particulier pour les étudiants en médecine), si vous devez prescrire des antibiotiques, veuillez vous référer aux recommandations officielles.
-Bactéries anaérobies
-L'information du spectre d'efficacité de l'antibiotique est à titre indicatif (en particulier pour les étudiants en médecine), si vous devez prescrire des antibiotiques, veuillez vous référer aux recommandations officielles.
-Autres bactéries
-L'information du spectre d'efficacité de l'antibiotique est à titre indicatif (en particulier pour les étudiants en médecine), si vous devez prescrire des antibiotiques, veuillez vous référer aux recommandations officielles.
+BG+ : Bacilles gram +.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Antibiotique_sulfamidé</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antibiotique_sulfamid%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Tableau d'efficacité</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bactéries aérobies</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'information du spectre d'efficacité de l'antibiotique est à titre indicatif (en particulier pour les étudiants en médecine), si vous devez prescrire des antibiotiques, veuillez vous référer aux recommandations officielles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Antibiotique_sulfamidé</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antibiotique_sulfamid%C3%A9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Tableau d'efficacité</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bactéries anaérobies</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'information du spectre d'efficacité de l'antibiotique est à titre indicatif (en particulier pour les étudiants en médecine), si vous devez prescrire des antibiotiques, veuillez vous référer aux recommandations officielles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Antibiotique_sulfamidé</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antibiotique_sulfamid%C3%A9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Tableau d'efficacité</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Autres bactéries</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'information du spectre d'efficacité de l'antibiotique est à titre indicatif (en particulier pour les étudiants en médecine), si vous devez prescrire des antibiotiques, veuillez vous référer aux recommandations officielles.
 Par ailleurs, l'activité anti-parasitaire est notable. Ainsi, l'association Sulfaméthoxazole + Triméthoprime est indiquée en première intention contre Pneumocystis jirovecii, Isospora belli et dans la prévention de la toxoplasmose, et de la pneumocystose chez le patient VIH. 
 </t>
         </is>
